--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -105,9 +105,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Miracle@3</t>
-  </si>
-  <si>
     <t>smtp.miraclesoft.com</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>C:\Users\DELL\Documents\UiPath\EmailExtractiontToExcel\Excel.xlsx</t>
+  </si>
+  <si>
+    <t>Miracle@4</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,7 +507,7 @@
   <dimension ref="A1:Z973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -565,12 +565,12 @@
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>995</v>
@@ -578,15 +578,15 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>587</v>
@@ -594,18 +594,18 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
